--- a/RASTA/risultati/CTM/result_TD/topics.xlsx
+++ b/RASTA/risultati/CTM/result_TD/topics.xlsx
@@ -468,312 +468,312 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>santa</t>
+          <t>chiesa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>maria</t>
+          <t>nella</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>venne</t>
+          <t>otricoli</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>nei</t>
+          <t>del</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>costruito</t>
+          <t>una</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>chiesa</t>
+          <t>situato</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>san</t>
+          <t>allainterno</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>costruita</t>
+          <t>museo</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>parrocchiale</t>
+          <t>che</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>edificata</t>
+          <t>per</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>poco</t>
+          <t>dove</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>via</t>
+          <t>laoratorio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>convento</t>
+          <t>municipale</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>porta</t>
+          <t>anacleto</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fuori</t>
+          <t>meccanismi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>trova</t>
+          <t>ampia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>mura</t>
+          <t>monumentali</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>madonna</t>
+          <t>antica</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>colle</t>
+          <t>anni</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>santa</t>
+          <t>quel</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ampliamenti</t>
+          <t>come</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>castelfiori</t>
+          <t>duomo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sellano</t>
+          <t>dei</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>laabside</t>
+          <t>che</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>malvasia</t>
+          <t>principale</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>calamita</t>
+          <t>una</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>pietrasanta</t>
+          <t>presenta</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>mandato</t>
+          <t>colle</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>attraversamento</t>
+          <t>metri</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>perlici</t>
+          <t>ancora</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>santa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nei</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>maria</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>piazza</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>venne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pressi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>con</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>secolo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sua</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>dei</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ricostruita</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>dopo</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>insieme</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>vescovo</t>
+          <t>del</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>per</t>
+          <t>della</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>lavori</t>
+          <t>una</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>monte</t>
+          <t>atto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>valle</t>
+          <t>campaniletto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>denominazione</t>
+          <t>risale</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pendici</t>
+          <t>anacleto</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fiume</t>
+          <t>cultura</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>malakos</t>
+          <t>snoda</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nome</t>
+          <t>vallingegno</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cima</t>
+          <t>diletto</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>pia</t>
+          <t>figlio</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>gola</t>
+          <t>giorgio</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>museo</t>
+          <t>storia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>palazzo</t>
+          <t>prospetto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>tradizionali</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>storico</t>
+          <t>cimabue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>civico</t>
+          <t>testimonianze</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>produzione</t>
+          <t>found</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>archeologica</t>
+          <t>pietralunga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ricerca</t>
+          <t>tenere</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>archeologico</t>
+          <t>antica</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>locale</t>
+          <t>scalo</t>
         </is>
       </c>
     </row>
